--- a/ACM_papers/ACM_papers.xlsx
+++ b/ACM_papers/ACM_papers.xlsx
@@ -970,8 +970,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L23"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A2" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A4" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/ACM_papers/ACM_papers.xlsx
+++ b/ACM_papers/ACM_papers.xlsx
@@ -10,14 +10,14 @@
     <sheet name="ACM papers 7" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'ACM papers 7'!$B$1:$L$23</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'ACM papers 7'!$B$1:$L$24</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="69">
   <si>
     <t>Presentations, papers, reports and one day courses of James Brakefield</t>
   </si>
@@ -73,12 +73,6 @@
     <t>Sigarch</t>
   </si>
   <si>
-    <t>https://dl.acm.org/doi/10.1145/641567.641570</t>
-  </si>
-  <si>
-    <t>Web page</t>
-  </si>
-  <si>
     <t>Talk on interpreters</t>
   </si>
   <si>
@@ -91,18 +85,12 @@
     <t>uP Arch</t>
   </si>
   <si>
-    <t>https://dl.acm.org/doi/10.1145/641542.641547</t>
-  </si>
-  <si>
     <t>Just what is an op-code?: or a universal computer design</t>
   </si>
   <si>
     <t>extensible machine langague</t>
   </si>
   <si>
-    <t>https://dl.acm.org/doi/10.1145/641542.641544</t>
-  </si>
-  <si>
     <t>From the other side of the Alantic: how to improve upon the MU5 design</t>
   </si>
   <si>
@@ -115,9 +103,6 @@
     <t>Sys Arch</t>
   </si>
   <si>
-    <t>https://dl.acm.org/doi/10.1145/641914.641920</t>
-  </si>
-  <si>
     <t>The peripheral bus</t>
   </si>
   <si>
@@ -127,9 +112,6 @@
     <t>microprocessor pherpherial bus</t>
   </si>
   <si>
-    <t>https://dl.acm.org/doi/10.1145/641914.641919</t>
-  </si>
-  <si>
     <t>Is 32 bits of address too much?</t>
   </si>
   <si>
@@ -157,9 +139,6 @@
     <t>Floats with exponent and mantissa signs in the middle allowing zero extension on both ends</t>
   </si>
   <si>
-    <t>https://dl.acm.org/profile/81100118660</t>
-  </si>
-  <si>
     <t>Brakefield's ACM publications, citations and downloads</t>
   </si>
   <si>
@@ -238,10 +217,13 @@
     <t>Culled from web page announcement or source file</t>
   </si>
   <si>
-    <t>https://github.com/jimbrake/Slides-Papers-Reports</t>
-  </si>
-  <si>
     <t>most cited of ACM_papers</t>
+  </si>
+  <si>
+    <t>search on "ACM James Brakefield", free</t>
+  </si>
+  <si>
+    <t>These seven papers are available free from ACM.  Three others are listed and not free.</t>
   </si>
 </sst>
 </file>
@@ -533,7 +515,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -597,9 +579,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -621,9 +600,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -651,20 +627,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -968,10 +959,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:L23"/>
+  <dimension ref="B1:L24"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A4" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1040,7 +1031,7 @@
       <c r="J4" s="19"/>
       <c r="K4" s="19"/>
     </row>
-    <row r="5" spans="2:12" s="27" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:12" s="26" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B5" s="20">
         <v>30286</v>
       </c>
@@ -1059,325 +1050,327 @@
       <c r="G5" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="23" t="s">
+      <c r="H5" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="I5" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="J5" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="I5" s="24" t="s">
+      <c r="K5" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="J5" s="25" t="s">
+      <c r="L5" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="K5" s="25" t="s">
+    </row>
+    <row r="6" spans="2:12" s="26" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B6" s="27">
+        <v>30103</v>
+      </c>
+      <c r="C6" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="L5" s="26" t="s">
+      <c r="E6" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="I6" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="J6" s="31" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="6" spans="2:12" s="27" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B6" s="28">
+      <c r="K6" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="L6" s="33" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" s="26" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B7" s="27">
         <v>30103</v>
       </c>
-      <c r="C6" s="29" t="s">
+      <c r="C7" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="29" t="s">
+      <c r="D7" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="29" t="s">
+      <c r="F7" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="30" t="s">
+      <c r="G7" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="H6" s="31" t="s">
+      <c r="H7" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="I7" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="J7" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="I6" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="J6" s="33" t="s">
+      <c r="K7" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="K6" s="34" t="s">
-        <v>74</v>
-      </c>
-      <c r="L6" s="35" t="s">
+      <c r="L7" s="33" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="2:12" s="27" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B7" s="28">
-        <v>30103</v>
-      </c>
-      <c r="C7" s="29" t="s">
+    <row r="8" spans="2:12" s="26" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B8" s="27">
+        <v>29495</v>
+      </c>
+      <c r="C8" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="29" t="s">
+      <c r="D8" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="29" t="s">
+      <c r="F8" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="30" t="s">
+      <c r="G8" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="H7" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="I7" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="J7" s="34" t="s">
+      <c r="H8" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="I8" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="J8" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="K7" s="34" t="s">
+      <c r="K8" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="L7" s="35" t="s">
+      <c r="L8" s="33" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="2:12" s="27" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B8" s="28">
+    <row r="9" spans="2:12" s="26" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B9" s="27">
         <v>29495</v>
       </c>
-      <c r="C8" s="29" t="s">
+      <c r="C9" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="29" t="s">
+      <c r="D9" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="I9" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="J9" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="29" t="s">
+      <c r="K9" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="L9" s="33" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" s="26" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="40">
+        <v>26299</v>
+      </c>
+      <c r="C10" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="29" t="s">
+      <c r="F10" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="30" t="s">
+      <c r="G10" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="I8" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="J8" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="K8" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="L8" s="35" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="2:12" s="27" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B9" s="28">
-        <v>29495</v>
-      </c>
-      <c r="C9" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="H9" s="31" t="s">
+      <c r="H10" s="44" t="s">
+        <v>67</v>
+      </c>
+      <c r="I10" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="I9" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="J9" s="34" t="s">
+      <c r="J10" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="K9" s="34" t="s">
+      <c r="K10" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="L9" s="35" t="s">
+      <c r="L10" s="38" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="2:12" s="27" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="43">
-        <v>26299</v>
-      </c>
-      <c r="C10" s="38" t="s">
+    <row r="11" spans="2:12" ht="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="2:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="B12" s="47" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" s="48"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="48"/>
+      <c r="H12" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="J12" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D10" s="37" t="s">
+      <c r="K12" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E10" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" s="37" t="s">
-        <v>16</v>
-      </c>
-      <c r="G10" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="H10" s="44" t="s">
-        <v>73</v>
-      </c>
-      <c r="I10" s="45" t="s">
+      <c r="L12" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="J10" s="39" t="s">
-        <v>43</v>
-      </c>
-      <c r="K10" s="39" t="s">
-        <v>44</v>
-      </c>
-      <c r="L10" s="40" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="2:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="H12" s="41" t="s">
-        <v>46</v>
-      </c>
-      <c r="J12" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="K12" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="L12" s="9" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B13" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C13" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="E13" t="s">
-        <v>51</v>
-      </c>
+    </row>
+    <row r="13" spans="2:12" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="46"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="45"/>
+      <c r="L13" s="9"/>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C14" s="42" t="s">
-        <v>3</v>
+        <v>43</v>
+      </c>
+      <c r="C14" s="39" t="s">
+        <v>2</v>
       </c>
       <c r="E14" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C15" s="42" t="s">
-        <v>4</v>
+        <v>45</v>
+      </c>
+      <c r="C15" s="39" t="s">
+        <v>3</v>
       </c>
       <c r="E15" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C16" s="42" t="s">
-        <v>5</v>
+        <v>47</v>
+      </c>
+      <c r="C16" s="39" t="s">
+        <v>4</v>
       </c>
       <c r="E16" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C17" s="42" t="s">
-        <v>6</v>
+        <v>49</v>
+      </c>
+      <c r="C17" s="39" t="s">
+        <v>5</v>
       </c>
       <c r="E17" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C18" s="42" t="s">
-        <v>7</v>
+        <v>51</v>
+      </c>
+      <c r="C18" s="39" t="s">
+        <v>6</v>
       </c>
       <c r="E18" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C19" s="42" t="s">
-        <v>8</v>
+        <v>53</v>
+      </c>
+      <c r="C19" s="39" t="s">
+        <v>7</v>
       </c>
       <c r="E19" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C20" s="42" t="s">
-        <v>65</v>
+        <v>55</v>
+      </c>
+      <c r="C20" s="39" t="s">
+        <v>8</v>
       </c>
       <c r="E20" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="21" spans="2:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C21" s="42" t="s">
-        <v>10</v>
+        <v>57</v>
+      </c>
+      <c r="C21" s="39" t="s">
+        <v>58</v>
       </c>
       <c r="E21" t="s">
-        <v>68</v>
-      </c>
-      <c r="G21" s="3"/>
-      <c r="H21"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="7"/>
+        <v>59</v>
+      </c>
     </row>
     <row r="22" spans="2:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C22" s="42" t="s">
-        <v>11</v>
+        <v>60</v>
+      </c>
+      <c r="C22" s="39" t="s">
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="G22" s="3"/>
       <c r="H22"/>
@@ -1388,13 +1381,13 @@
     </row>
     <row r="23" spans="2:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C23" s="42" t="s">
-        <v>12</v>
+        <v>62</v>
+      </c>
+      <c r="C23" s="39" t="s">
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="G23" s="3"/>
       <c r="H23"/>
@@ -1403,17 +1396,28 @@
       <c r="K23" s="9"/>
       <c r="L23" s="7"/>
     </row>
+    <row r="24" spans="2:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C24" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" t="s">
+        <v>65</v>
+      </c>
+      <c r="G24" s="3"/>
+      <c r="H24"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="7"/>
+    </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="H9" r:id="rId1"/>
-    <hyperlink ref="H8" r:id="rId2"/>
-    <hyperlink ref="H7" r:id="rId3"/>
-    <hyperlink ref="H6" r:id="rId4"/>
-    <hyperlink ref="H5" r:id="rId5"/>
-    <hyperlink ref="H12" r:id="rId6"/>
-    <hyperlink ref="H10" r:id="rId7"/>
-  </hyperlinks>
+  <mergeCells count="1">
+    <mergeCell ref="B12:G12"/>
+  </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="40" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId8"/>
+  <pageSetup scale="40" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/ACM_papers/ACM_papers.xlsx
+++ b/ACM_papers/ACM_papers.xlsx
@@ -4,22 +4,22 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="27795" windowHeight="10050"/>
+    <workbookView xWindow="360" yWindow="90" windowWidth="27795" windowHeight="11325"/>
   </bookViews>
   <sheets>
-    <sheet name="ACM papers 7" sheetId="1" r:id="rId1"/>
+    <sheet name="by most recent 104" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'ACM papers 7'!$B$1:$L$24</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'by most recent 104'!$B$1:$L$25</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="69">
-  <si>
-    <t>Presentations, papers, reports and one day courses of James Brakefield</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="79">
+  <si>
+    <t>each_by_year entry</t>
   </si>
   <si>
     <t>Column header info at bottom</t>
@@ -58,16 +58,49 @@
     <t>Abstract</t>
   </si>
   <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>uP Arch</t>
+  </si>
+  <si>
+    <t>JCB</t>
+  </si>
+  <si>
+    <t>fltg-pt</t>
+  </si>
+  <si>
+    <t>paper</t>
+  </si>
+  <si>
+    <t>Git hub</t>
+  </si>
+  <si>
+    <t>Sys Arch</t>
+  </si>
+  <si>
     <t>pdf</t>
   </si>
   <si>
+    <t>Open Channel</t>
+  </si>
+  <si>
+    <t>scan pdf</t>
+  </si>
+  <si>
     <t>Forth</t>
   </si>
   <si>
-    <t>JCB</t>
-  </si>
-  <si>
-    <t>paper</t>
+    <t>search on "ACM James Brakefield", free</t>
+  </si>
+  <si>
+    <t>Address space unification</t>
+  </si>
+  <si>
+    <t>Virtual communications, Extensible machine language, The programmer's algebra</t>
+  </si>
+  <si>
+    <t>Computers show man's tendency to isolate things that are different in nature and later, as they are better understood, to unify these differences under a more general category.</t>
   </si>
   <si>
     <t>Sigarch</t>
@@ -82,12 +115,12 @@
     <t>different kinds of inner interpreters for stack machines (Forth)</t>
   </si>
   <si>
-    <t>uP Arch</t>
-  </si>
-  <si>
     <t>Just what is an op-code?: or a universal computer design</t>
   </si>
   <si>
+    <t>most cited of my papers</t>
+  </si>
+  <si>
     <t>extensible machine langague</t>
   </si>
   <si>
@@ -100,9 +133,6 @@
     <t>where the MU5 architecture leads</t>
   </si>
   <si>
-    <t>Sys Arch</t>
-  </si>
-  <si>
     <t>The peripheral bus</t>
   </si>
   <si>
@@ -121,13 +151,7 @@
     <t>memory descriptor encoding for unsigned, signed and floating-point, bit, two bit and four bit alignment, power of two sizes</t>
   </si>
   <si>
-    <t>scan pdf</t>
-  </si>
-  <si>
-    <t>fltg-pt</t>
-  </si>
-  <si>
-    <t>Git hub</t>
+    <t>https://github.com/jimbrake/Slides-Papers-Reports</t>
   </si>
   <si>
     <t>An Optimal Floating Point Format</t>
@@ -139,6 +163,12 @@
     <t>Floats with exponent and mantissa signs in the middle allowing zero extension on both ends</t>
   </si>
   <si>
+    <t>Number of Ys</t>
+  </si>
+  <si>
+    <t>These seven papers are available free from ACM.  Three others are listed and not free.</t>
+  </si>
+  <si>
     <t>Brakefield's ACM publications, citations and downloads</t>
   </si>
   <si>
@@ -148,6 +178,12 @@
     <t>7 citations, 1339 total downloads, 1980 to 1991</t>
   </si>
   <si>
+    <t>Column A</t>
+  </si>
+  <si>
+    <t>Y if in directory "each_by_year" and slides or paper present</t>
+  </si>
+  <si>
     <t>Column B</t>
   </si>
   <si>
@@ -217,13 +253,7 @@
     <t>Culled from web page announcement or source file</t>
   </si>
   <si>
-    <t>most cited of ACM_papers</t>
-  </si>
-  <si>
-    <t>search on "ACM James Brakefield", free</t>
-  </si>
-  <si>
-    <t>These seven papers are available free from ACM.  Three others are listed and not free.</t>
+    <t>ACM papers of James Brakefield</t>
   </si>
 </sst>
 </file>
@@ -250,6 +280,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -266,14 +304,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -421,7 +451,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="hair">
         <color auto="1"/>
       </left>
       <right style="hair">
@@ -436,7 +466,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="hair">
+      <left style="medium">
         <color auto="1"/>
       </left>
       <right style="hair">
@@ -515,7 +545,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -524,21 +554,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -554,13 +578,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -579,83 +603,98 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -959,15 +998,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:L24"/>
+  <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozenSplit"/>
+      <selection sqref="A1:XFD3"/>
+      <selection pane="bottomLeft" activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="1.85546875" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" style="23" customWidth="1"/>
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="5.28515625" style="2" customWidth="1"/>
     <col min="4" max="4" width="8.42578125" style="2" customWidth="1"/>
@@ -976,448 +1017,545 @@
     <col min="7" max="7" width="8.140625" style="3" customWidth="1"/>
     <col min="8" max="8" width="22.7109375" customWidth="1"/>
     <col min="9" max="9" width="5.28515625" style="4" customWidth="1"/>
-    <col min="10" max="10" width="51" style="9" customWidth="1"/>
-    <col min="11" max="11" width="31" style="9" customWidth="1"/>
-    <col min="12" max="12" width="66" style="7" customWidth="1"/>
+    <col min="10" max="10" width="51" style="7" customWidth="1"/>
+    <col min="11" max="11" width="31" style="7" customWidth="1"/>
+    <col min="12" max="12" width="66" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J1" s="5" t="s">
+    <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J1" s="50" t="s">
+        <v>78</v>
+      </c>
+      <c r="K1" s="5"/>
+    </row>
+    <row r="2" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="6"/>
-    </row>
-    <row r="2" spans="2:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="51" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:12" s="18" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="10" t="s">
+    <row r="3" spans="1:12" s="16" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="23"/>
+      <c r="B3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="H3" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="14" t="s">
+      <c r="I3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="15" t="s">
+      <c r="J3" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="16" t="s">
+      <c r="K3" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="17" t="s">
+      <c r="L3" s="15" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:12" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-    </row>
-    <row r="5" spans="2:12" s="26" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B5" s="20">
+    <row r="4" spans="1:12" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+    </row>
+    <row r="5" spans="1:12" s="29" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="18">
+        <v>30348</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="K5" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="L5" s="21" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" s="29" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="24">
         <v>30286</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C6" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="K6" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="L6" s="28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" s="29" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="B7" s="24">
+        <v>30103</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="21" t="s">
+      <c r="E7" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="21" t="s">
+      <c r="F7" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="J7" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="K7" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="L7" s="28" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" s="29" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="24">
+        <v>30103</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="J8" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="K8" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="L8" s="28" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" s="29" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="24">
+        <v>29495</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="I9" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="J9" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="K9" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="L9" s="28" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" s="29" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="24">
+        <v>29495</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="I10" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="J10" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="K10" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="L10" s="28" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" s="29" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="45">
+        <v>26299</v>
+      </c>
+      <c r="C11" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="22" t="s">
+      <c r="E11" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="43" t="s">
+      <c r="G11" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="H11" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="I11" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="J11" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="K11" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="L11" s="36" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="44">
+        <f>COUNTIF(A5:A11,"Y")</f>
+        <v>7</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="37"/>
+    </row>
+    <row r="13" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="B13" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="42" t="s">
+        <v>54</v>
+      </c>
+      <c r="H14" s="43"/>
+      <c r="L14" s="7"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="E15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B19" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="23"/>
+      <c r="B20" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C20" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" t="s">
+        <v>66</v>
+      </c>
+      <c r="G20" s="3"/>
+      <c r="H20"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="6"/>
+    </row>
+    <row r="21" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="23"/>
+      <c r="B21" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="I5" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="J5" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="K5" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="L5" s="25" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12" s="26" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B6" s="27">
-        <v>30103</v>
-      </c>
-      <c r="C6" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="H6" s="42" t="s">
-        <v>67</v>
-      </c>
-      <c r="I6" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="J6" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="K6" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="L6" s="33" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="2:12" s="26" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B7" s="27">
-        <v>30103</v>
-      </c>
-      <c r="C7" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="H7" s="42" t="s">
-        <v>67</v>
-      </c>
-      <c r="I7" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="J7" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="K7" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="L7" s="33" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12" s="26" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B8" s="27">
-        <v>29495</v>
-      </c>
-      <c r="C8" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="H8" s="42" t="s">
-        <v>67</v>
-      </c>
-      <c r="I8" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="J8" s="34" t="s">
-        <v>28</v>
-      </c>
-      <c r="K8" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="L8" s="33" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="2:12" s="26" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B9" s="27">
-        <v>29495</v>
-      </c>
-      <c r="C9" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="H9" s="42" t="s">
-        <v>67</v>
-      </c>
-      <c r="I9" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="J9" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="K9" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="L9" s="33" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="2:12" s="26" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="40">
-        <v>26299</v>
-      </c>
-      <c r="C10" s="36" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="35" t="s">
-        <v>35</v>
-      </c>
-      <c r="E10" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="G10" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="H10" s="44" t="s">
-        <v>67</v>
-      </c>
-      <c r="I10" s="41" t="s">
-        <v>36</v>
-      </c>
-      <c r="J10" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="K10" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="L10" s="38" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="2:12" ht="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="2:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B12" s="47" t="s">
+      <c r="C21" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" t="s">
         <v>68</v>
       </c>
-      <c r="C12" s="48"/>
-      <c r="D12" s="48"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="45" t="s">
-        <v>67</v>
-      </c>
-      <c r="J12" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="K12" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="L12" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="2:12" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="46"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="45"/>
-      <c r="L13" s="9"/>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B14" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="E14" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B15" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C15" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="E15" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B16" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C16" s="39" t="s">
-        <v>4</v>
-      </c>
-      <c r="E16" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B17" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C17" s="39" t="s">
-        <v>5</v>
-      </c>
-      <c r="E17" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B18" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C18" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="E18" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B19" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C19" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="E19" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B20" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C20" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B21" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C21" s="39" t="s">
-        <v>58</v>
-      </c>
-      <c r="E21" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="22" spans="2:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G21" s="3"/>
+      <c r="H21"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="6"/>
+    </row>
+    <row r="22" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="23"/>
       <c r="B22" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C22" s="39" t="s">
-        <v>10</v>
+        <v>69</v>
+      </c>
+      <c r="C22" s="42" t="s">
+        <v>70</v>
       </c>
       <c r="E22" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="G22" s="3"/>
       <c r="H22"/>
       <c r="I22" s="4"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="7"/>
-    </row>
-    <row r="23" spans="2:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="6"/>
+    </row>
+    <row r="23" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="23"/>
       <c r="B23" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C23" s="39" t="s">
-        <v>11</v>
+        <v>72</v>
+      </c>
+      <c r="C23" s="42" t="s">
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="G23" s="3"/>
       <c r="H23"/>
       <c r="I23" s="4"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="7"/>
-    </row>
-    <row r="24" spans="2:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="6"/>
+    </row>
+    <row r="24" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="23"/>
       <c r="B24" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C24" s="39" t="s">
-        <v>12</v>
+        <v>74</v>
+      </c>
+      <c r="C24" s="42" t="s">
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="G24" s="3"/>
       <c r="H24"/>
       <c r="I24" s="4"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="6"/>
+    </row>
+    <row r="25" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="23"/>
+      <c r="B25" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C25" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" t="s">
+        <v>77</v>
+      </c>
+      <c r="G25" s="3"/>
+      <c r="H25"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="B13:G13"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="H11" r:id="rId1"/>
+  </hyperlinks>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="40" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup scale="55" fitToHeight="2" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>